--- a/Sprints/sprint 4.xlsx
+++ b/Sprints/sprint 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIND10\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\PIM\Sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77A107F4-9133-4FFD-8C7D-AF33E7EFB65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7694ABB8-F91B-4ACF-9D5C-A0E0E78957EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>STATUS</t>
   </si>
@@ -42,37 +42,25 @@
     <t>Grupo</t>
   </si>
   <si>
-    <t>Em processo</t>
-  </si>
-  <si>
-    <t>Desenvolvimento das Materias</t>
-  </si>
-  <si>
     <t>Gabriel</t>
   </si>
   <si>
-    <t>17/04/2024 - 24/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicio do Manual do Usuário  </t>
-  </si>
-  <si>
-    <t>Realizar Requisitos do Pim</t>
-  </si>
-  <si>
-    <t>Realizar botão perfil no Figma</t>
-  </si>
-  <si>
-    <t>Organização do Github</t>
-  </si>
-  <si>
     <t>Bruno</t>
   </si>
   <si>
-    <t>17/042024 - 24/04/20024</t>
-  </si>
-  <si>
-    <t>Edição da Tela de Cadastro</t>
+    <t>10/04/2024 - 17/04/2024</t>
+  </si>
+  <si>
+    <t>Criação do Botão de Perfil no Figma</t>
+  </si>
+  <si>
+    <t>Pronto</t>
+  </si>
+  <si>
+    <t>Organização do GitHub</t>
+  </si>
+  <si>
+    <t>Edição na Tela de Cadastro</t>
   </si>
 </sst>
 </file>
@@ -88,18 +76,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,12 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -159,8 +138,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:D9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:D4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TAREFA REALIZADA " dataDxfId="2"/>
@@ -468,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,86 +478,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Sprints/sprint 4.xlsx
+++ b/Sprints/sprint 4.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\PIM\Sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7694ABB8-F91B-4ACF-9D5C-A0E0E78957EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C8FE07-72A5-485A-8EA1-79F481EBD490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint" sheetId="2" r:id="rId1"/>
+    <sheet name="Sprint 4" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>STATUS</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>Edição na Tela de Cadastro</t>
+  </si>
+  <si>
+    <t>HORAS TRABALHADAS</t>
+  </si>
+  <si>
+    <t>2 Horas</t>
+  </si>
+  <si>
+    <t>2 Horas e 20 Minutos</t>
+  </si>
+  <si>
+    <t>2 Hora e 10 Minutos</t>
   </si>
 </sst>
 </file>
@@ -105,7 +117,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -138,13 +167,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:D4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TAREFA REALIZADA " dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="QUEM REALIZOU" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TAREFA REALIZADA " dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="QUEM REALIZOU" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{55212AB4-3206-42C8-9436-06A052F55014}" name="HORAS TRABALHADAS" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -447,22 +477,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="26.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -473,10 +504,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -487,10 +521,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -501,10 +538,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -515,6 +555,9 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
